--- a/dataset/task_sheet_answers_v2/IncomeStatement2/6_IncomeStatement2/6_IncomeStatement2_gt2.xlsx
+++ b/dataset/task_sheet_answers_v2/IncomeStatement2/6_IncomeStatement2/6_IncomeStatement2_gt2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers_v2\IncomeStatement2\6_IncomeStatement2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019D1DE8-A8B7-438E-893B-B44B58242454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E77A8F5-9A81-4C50-A5CC-E516A94DE87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18315" windowHeight="12990" xr2:uid="{507D42A9-D77B-465E-BC83-B81E50047239}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21150" windowHeight="12750" xr2:uid="{507D42A9-D77B-465E-BC83-B81E50047239}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,13 +71,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0.00;\-\$#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -85,13 +85,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -105,20 +105,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,12 +132,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -171,10 +157,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -182,21 +168,10 @@
     <cellStyle name="40% - Accent1 2" xfId="2" xr:uid="{D5FCBFF2-A15E-414F-852C-19839A8E6CBE}"/>
     <cellStyle name="60% - Accent1 2" xfId="4" xr:uid="{20C37C5A-E1AB-45B5-97C5-F3DDA923F796}"/>
     <cellStyle name="Accent1 2" xfId="3" xr:uid="{1F9E64E1-0405-4085-BC27-2EBA9A51C8D9}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="1" xr:uid="{508552CE-3394-4DC7-BEAA-176A5973C504}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -210,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -509,22 +484,22 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13.9" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -579,7 +554,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -602,7 +577,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -625,7 +600,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -648,7 +623,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -661,7 +636,7 @@
       <c r="D6" s="1">
         <v>898</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>7962</v>
       </c>
       <c r="G6" s="1">
@@ -671,7 +646,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -694,7 +669,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -717,7 +692,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -740,7 +715,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>2023</v>
       </c>
